--- a/ESYS/Wirtschaftliche_Bewertung.xlsx
+++ b/ESYS/Wirtschaftliche_Bewertung.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wirtschaftliche_Bewertung" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wirtschaftliche_Bewertung" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1" concurrentCalc="0"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,10 +30,18 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,23 +60,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="1" builtinId="4"/>
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -442,258 +482,435 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="14.08984375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="12.54296875" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="19.453125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="11.90625" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="15.08984375" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="14.140625" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.42578125" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="19.28515625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
+    <col width="15.28515625" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" style="3" min="8" max="9"/>
+    <col width="15" bestFit="1" customWidth="1" style="3" min="10" max="10"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
+    <col width="16" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Investkosten</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Ersparnisse Prosumer</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Ersparnisse Consumer</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Förderkosten</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>Eigenverbrauch</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>Erzeugung</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Netzbezug</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>Netzeinspeisung</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>Verbrauch</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Break-Even Jahre</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="n">
+      <c r="B2" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Net-Metering</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>41386.331961</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>1926.406298349986</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="C3" s="7" t="n">
+        <v>369489.2352000009</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>21189.14802180016</v>
+      </c>
+      <c r="E3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>12415.8995883</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="7" t="n">
+        <v>110846.7705600003</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>36661.02822500002</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>230930.7720000008</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>321209.9360999992</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>135073.1826000001</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>417067.5255000005</v>
+      </c>
+      <c r="L3">
         <f>(C3-F3)/(D3+E3)</f>
         <v/>
       </c>
+      <c r="O3">
+        <f>K3*0.17</f>
+        <v/>
+      </c>
+      <c r="P3">
+        <f>J3*0.05</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
+      <c r="B4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>57304.15194599998</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>6954.465272899948</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="C4" s="7" t="n">
+        <v>438768.4668000015</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>85023.26289925056</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>17191.2455838</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="7" t="n">
+        <v>131630.5400400005</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>36661.02822500002</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>230930.7720000008</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>321209.9360999992</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>135073.1826000001</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>417067.5255000005</v>
+      </c>
+      <c r="L4">
         <f>(C4-F4)/(D4+E4)</f>
         <v/>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n">
+      <c r="B5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>47753.45995499999</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>3843.495440499976</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="C5" s="7" t="n">
+        <v>415675.3896000014</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>39427.02489575029</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>19101.383982</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="7" t="n">
+        <v>166270.1558400006</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>36661.02822500002</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>230930.7720000008</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>321209.9360999992</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>135073.1826000001</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>417067.5255000005</v>
+      </c>
+      <c r="L5">
         <f>(C5-F5)/(D5+E5)</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Peer-to-Peer</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>41386.331961</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>10042.66402312145</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>62.12700497613696</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>12415.8995883</v>
-      </c>
-      <c r="G6">
+      <c r="C6" s="7" t="n">
+        <v>369489.2352000009</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>21084.56578254971</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>1964.883545450593</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>110846.7705600003</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>36661.02822500002</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>230930.7720000008</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>321209.9360999992</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>135073.1826000001</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>417067.5255000005</v>
+      </c>
+      <c r="L6">
         <f>(C6-F6)/(D6+E6)</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n">
+      <c r="B7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>57304.15194599998</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>36365.51934362588</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>229.5044654412559</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>17191.2455838</v>
-      </c>
-      <c r="G7">
+      <c r="C7" s="7" t="n">
+        <v>438768.4668000015</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>91004.03858633862</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>5141.445277262388</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>131630.5400400005</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>36661.02822500002</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>230930.7720000008</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>321209.9360999992</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>135073.1826000001</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>417067.5255000005</v>
+      </c>
+      <c r="L7">
         <f>(C7-F7)/(D7+E7)</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n">
+      <c r="B8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>47753.45995499999</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>20353.27053733249</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>138.8721287701883</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>19101.383982</v>
-      </c>
-      <c r="G8">
+      <c r="C8" s="7" t="n">
+        <v>415675.3896000014</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>40504.26129237042</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>3111.065613630106</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>166270.1558400006</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>36661.02822500002</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>230930.7720000008</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>321209.9360999992</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>135073.1826000001</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>417067.5255000005</v>
+      </c>
+      <c r="L8">
         <f>(C8-F8)/(D8+E8)</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Shared Generation</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>41386.331961</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>991.7971792738374</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>62.12700497613696</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>12415.8995883</v>
-      </c>
-      <c r="G9">
+      <c r="C9" s="7" t="n">
+        <v>1034012.435248867</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>38181.99460935064</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>13285.5812066561</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>310203.7305746601</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>113973.4176520113</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>646257.7720305432</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>257445.1320460046</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>486635.3785765476</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>417067.5255000005</v>
+      </c>
+      <c r="L9">
         <f>(C9-F9)/(D9+E9)</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="n">
+      <c r="B10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>57304.15194599998</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>3663.815462258638</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>229.5044654412559</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>17191.2455838</v>
-      </c>
-      <c r="G10">
+      <c r="C10" s="7" t="n">
+        <v>1227889.766858031</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>177631.4996945483</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>57319.65465074215</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>368366.9300574092</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>113973.4176520113</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>646257.7720305432</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>257445.1320460046</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>486635.3785765476</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>417067.5255000005</v>
+      </c>
+      <c r="L10">
         <f>(C10-F10)/(D10+E10)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="n">
+      <c r="B11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>47753.45995499999</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>2216.958400729751</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>138.8721287701883</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>19101.383982</v>
-      </c>
-      <c r="G11">
+      <c r="C11" s="7" t="n">
+        <v>1163263.989654977</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>75899.03556041732</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>25517.57411920175</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>465305.5958619909</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>113973.4176520113</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>646257.7720305432</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>257445.1320460046</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>486635.3785765476</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>417067.5255000005</v>
+      </c>
+      <c r="L11">
         <f>(C11-F11)/(D11+E11)</f>
         <v/>
       </c>
@@ -720,7 +937,7 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ESYS/Wirtschaftliche_Bewertung.xlsx
+++ b/ESYS/Wirtschaftliche_Bewertung.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Wirtschaftliche_Bewertung" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sens PTP" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -16,9 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0&quot; kWh&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -30,15 +31,15 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -83,26 +84,28 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,6 +182,1936 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Investitionskosten über Batteriegröße</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sens PTP'!$B$15</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Investkosten</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <numRef>
+              <f>'Sens PTP'!$A$16:$A$26</f>
+              <numCache>
+                <formatCode>0" kWh"</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>100</v>
+                </pt>
+                <pt idx="2">
+                  <v>200</v>
+                </pt>
+                <pt idx="3">
+                  <v>300</v>
+                </pt>
+                <pt idx="4">
+                  <v>400</v>
+                </pt>
+                <pt idx="5">
+                  <v>500</v>
+                </pt>
+                <pt idx="6">
+                  <v>600</v>
+                </pt>
+                <pt idx="7">
+                  <v>700</v>
+                </pt>
+                <pt idx="8">
+                  <v>800</v>
+                </pt>
+                <pt idx="9">
+                  <v>900</v>
+                </pt>
+                <pt idx="10">
+                  <v>1000</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sens PTP'!$B$16:$B$26</f>
+              <numCache>
+                <formatCode>_-"€"\ * #,##0_-;\-"€"\ * #,##0_-;_-"€"\ * "-"??_-;_-@_-</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>369489.2352</v>
+                </pt>
+                <pt idx="1">
+                  <v>469489.2352</v>
+                </pt>
+                <pt idx="2">
+                  <v>569489.2352</v>
+                </pt>
+                <pt idx="3">
+                  <v>669489.2352</v>
+                </pt>
+                <pt idx="4">
+                  <v>769489.2352</v>
+                </pt>
+                <pt idx="5">
+                  <v>869489.2352</v>
+                </pt>
+                <pt idx="6">
+                  <v>969489.2352</v>
+                </pt>
+                <pt idx="7">
+                  <v>1069489.2352</v>
+                </pt>
+                <pt idx="8">
+                  <v>1169489.2352</v>
+                </pt>
+                <pt idx="9">
+                  <v>1269489.2352</v>
+                </pt>
+                <pt idx="10">
+                  <v>1369489.2352</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="1751344527"/>
+        <axId val="1751344943"/>
+      </barChart>
+      <catAx>
+        <axId val="1751344527"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="0&quot; kWh&quot;" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1751344943"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="1751344943"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1751344527"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ersparnisse Prosumer über Batteriegröße</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sens PTP'!$C$15</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Ersparnisse Prosumer</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <numRef>
+              <f>'Sens PTP'!$A$16:$A$26</f>
+              <numCache>
+                <formatCode>0" kWh"</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>100</v>
+                </pt>
+                <pt idx="2">
+                  <v>200</v>
+                </pt>
+                <pt idx="3">
+                  <v>300</v>
+                </pt>
+                <pt idx="4">
+                  <v>400</v>
+                </pt>
+                <pt idx="5">
+                  <v>500</v>
+                </pt>
+                <pt idx="6">
+                  <v>600</v>
+                </pt>
+                <pt idx="7">
+                  <v>700</v>
+                </pt>
+                <pt idx="8">
+                  <v>800</v>
+                </pt>
+                <pt idx="9">
+                  <v>900</v>
+                </pt>
+                <pt idx="10">
+                  <v>1000</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sens PTP'!$C$16:$C$26</f>
+              <numCache>
+                <formatCode>_-"€"\ * #,##0_-;\-"€"\ * #,##0_-;_-"€"\ * "-"??_-;_-@_-</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>13984.2458015496</v>
+                </pt>
+                <pt idx="1">
+                  <v>17380.7955373814</v>
+                </pt>
+                <pt idx="2">
+                  <v>19861.8291972064</v>
+                </pt>
+                <pt idx="3">
+                  <v>21949.1138699064</v>
+                </pt>
+                <pt idx="4">
+                  <v>23725.9103575686</v>
+                </pt>
+                <pt idx="5">
+                  <v>25008.292788826</v>
+                </pt>
+                <pt idx="6">
+                  <v>25680.270275203</v>
+                </pt>
+                <pt idx="7">
+                  <v>26099.0312514112</v>
+                </pt>
+                <pt idx="8">
+                  <v>26358.0462417156</v>
+                </pt>
+                <pt idx="9">
+                  <v>26596.627037366</v>
+                </pt>
+                <pt idx="10">
+                  <v>26745.1082064222</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="1751344527"/>
+        <axId val="1751344943"/>
+      </barChart>
+      <catAx>
+        <axId val="1751344527"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="0&quot; kWh&quot;" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1751344943"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="1751344943"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1751344527"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ersparnisse Consumer über Batteriegröße</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sens PTP'!$D$15</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Ersparnisse Consumer</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <numRef>
+              <f>'Sens PTP'!$A$16:$A$26</f>
+              <numCache>
+                <formatCode>0" kWh"</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>100</v>
+                </pt>
+                <pt idx="2">
+                  <v>200</v>
+                </pt>
+                <pt idx="3">
+                  <v>300</v>
+                </pt>
+                <pt idx="4">
+                  <v>400</v>
+                </pt>
+                <pt idx="5">
+                  <v>500</v>
+                </pt>
+                <pt idx="6">
+                  <v>600</v>
+                </pt>
+                <pt idx="7">
+                  <v>700</v>
+                </pt>
+                <pt idx="8">
+                  <v>800</v>
+                </pt>
+                <pt idx="9">
+                  <v>900</v>
+                </pt>
+                <pt idx="10">
+                  <v>1000</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sens PTP'!$D$16:$D$26</f>
+              <numCache>
+                <formatCode>_-"€"\ * #,##0_-;\-"€"\ * #,##0_-;_-"€"\ * "-"??_-;_-@_-</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>1964.88354545059</v>
+                </pt>
+                <pt idx="1">
+                  <v>2460.91280008605</v>
+                </pt>
+                <pt idx="2">
+                  <v>2731.71128584154</v>
+                </pt>
+                <pt idx="3">
+                  <v>2936.98914622631</v>
+                </pt>
+                <pt idx="4">
+                  <v>3112.18857819406</v>
+                </pt>
+                <pt idx="5">
+                  <v>3287.21066183762</v>
+                </pt>
+                <pt idx="6">
+                  <v>3390.90655652512</v>
+                </pt>
+                <pt idx="7">
+                  <v>3458.52991366025</v>
+                </pt>
+                <pt idx="8">
+                  <v>3500.77763863885</v>
+                </pt>
+                <pt idx="9">
+                  <v>3527.74647224766</v>
+                </pt>
+                <pt idx="10">
+                  <v>3543.9070841566</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="1751344527"/>
+        <axId val="1751344943"/>
+      </barChart>
+      <catAx>
+        <axId val="1751344527"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="0&quot; kWh&quot;" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1751344943"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="1751344943"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1751344527"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ersparnisse Gesamt über Batteriegröße</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sens PTP'!$B$15</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Investkosten</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <numRef>
+              <f>'Sens PTP'!$A$16:$A$26</f>
+              <numCache>
+                <formatCode>0" kWh"</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>100</v>
+                </pt>
+                <pt idx="2">
+                  <v>200</v>
+                </pt>
+                <pt idx="3">
+                  <v>300</v>
+                </pt>
+                <pt idx="4">
+                  <v>400</v>
+                </pt>
+                <pt idx="5">
+                  <v>500</v>
+                </pt>
+                <pt idx="6">
+                  <v>600</v>
+                </pt>
+                <pt idx="7">
+                  <v>700</v>
+                </pt>
+                <pt idx="8">
+                  <v>800</v>
+                </pt>
+                <pt idx="9">
+                  <v>900</v>
+                </pt>
+                <pt idx="10">
+                  <v>1000</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sens PTP'!$K$16:$K$26</f>
+              <numCache>
+                <formatCode>_-"€"\ * #,##0_-;\-"€"\ * #,##0_-;_-"€"\ * "-"??_-;_-@_-</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>15949.12934700019</v>
+                </pt>
+                <pt idx="1">
+                  <v>19841.70833746745</v>
+                </pt>
+                <pt idx="2">
+                  <v>22593.54048304794</v>
+                </pt>
+                <pt idx="3">
+                  <v>24886.10301613271</v>
+                </pt>
+                <pt idx="4">
+                  <v>26838.09893576266</v>
+                </pt>
+                <pt idx="5">
+                  <v>28295.50345066362</v>
+                </pt>
+                <pt idx="6">
+                  <v>29071.17683172812</v>
+                </pt>
+                <pt idx="7">
+                  <v>29557.56116507145</v>
+                </pt>
+                <pt idx="8">
+                  <v>29858.82388035445</v>
+                </pt>
+                <pt idx="9">
+                  <v>30124.37350961366</v>
+                </pt>
+                <pt idx="10">
+                  <v>30289.0152905788</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="1751344527"/>
+        <axId val="1751344943"/>
+      </barChart>
+      <catAx>
+        <axId val="1751344527"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="0&quot; kWh&quot;" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1751344943"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="1751344943"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1751344527"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Förderkosten über Batteriegröße</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sens PTP'!$E$15</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Förderkosten</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <numRef>
+              <f>'Sens PTP'!$A$16:$A$26</f>
+              <numCache>
+                <formatCode>0" kWh"</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>100</v>
+                </pt>
+                <pt idx="2">
+                  <v>200</v>
+                </pt>
+                <pt idx="3">
+                  <v>300</v>
+                </pt>
+                <pt idx="4">
+                  <v>400</v>
+                </pt>
+                <pt idx="5">
+                  <v>500</v>
+                </pt>
+                <pt idx="6">
+                  <v>600</v>
+                </pt>
+                <pt idx="7">
+                  <v>700</v>
+                </pt>
+                <pt idx="8">
+                  <v>800</v>
+                </pt>
+                <pt idx="9">
+                  <v>900</v>
+                </pt>
+                <pt idx="10">
+                  <v>1000</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sens PTP'!$E$16:$E$26</f>
+              <numCache>
+                <formatCode>_-"€"\ * #,##0_-;\-"€"\ * #,##0_-;_-"€"\ * "-"??_-;_-@_-</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>110846.77056</v>
+                </pt>
+                <pt idx="1">
+                  <v>130846.77056</v>
+                </pt>
+                <pt idx="2">
+                  <v>150846.77056</v>
+                </pt>
+                <pt idx="3">
+                  <v>170846.77056</v>
+                </pt>
+                <pt idx="4">
+                  <v>190846.77056</v>
+                </pt>
+                <pt idx="5">
+                  <v>210846.77056</v>
+                </pt>
+                <pt idx="6">
+                  <v>230846.77056</v>
+                </pt>
+                <pt idx="7">
+                  <v>250846.77056</v>
+                </pt>
+                <pt idx="8">
+                  <v>270846.77056</v>
+                </pt>
+                <pt idx="9">
+                  <v>290846.77056</v>
+                </pt>
+                <pt idx="10">
+                  <v>310846.77056</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="1751344527"/>
+        <axId val="1751344943"/>
+      </barChart>
+      <catAx>
+        <axId val="1751344527"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="0&quot; kWh&quot;" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1751344943"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="1751344943"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1751344527"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Amortisationszeit über Batteriegröße</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sens PTP'!$L$15</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Amortisationszeit</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="BD92DE"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <numRef>
+              <f>'Sens PTP'!$A$16:$A$26</f>
+              <numCache>
+                <formatCode>0" kWh"</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>100</v>
+                </pt>
+                <pt idx="2">
+                  <v>200</v>
+                </pt>
+                <pt idx="3">
+                  <v>300</v>
+                </pt>
+                <pt idx="4">
+                  <v>400</v>
+                </pt>
+                <pt idx="5">
+                  <v>500</v>
+                </pt>
+                <pt idx="6">
+                  <v>600</v>
+                </pt>
+                <pt idx="7">
+                  <v>700</v>
+                </pt>
+                <pt idx="8">
+                  <v>800</v>
+                </pt>
+                <pt idx="9">
+                  <v>900</v>
+                </pt>
+                <pt idx="10">
+                  <v>1000</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sens PTP'!$L$16:$L$26</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>16.21671371601529</v>
+                </pt>
+                <pt idx="1">
+                  <v>17.06720302911294</v>
+                </pt>
+                <pt idx="2">
+                  <v>18.52929889204881</v>
+                </pt>
+                <pt idx="3">
+                  <v>20.0369846703901</v>
+                </pt>
+                <pt idx="4">
+                  <v>21.56048630810209</v>
+                </pt>
+                <pt idx="5">
+                  <v>23.27728381961526</v>
+                </pt>
+                <pt idx="6">
+                  <v>25.40806892391951</v>
+                </pt>
+                <pt idx="7">
+                  <v>27.69654979543442</v>
+                </pt>
+                <pt idx="8">
+                  <v>30.09637848566634</v>
+                </pt>
+                <pt idx="9">
+                  <v>32.48673252333973</v>
+                </pt>
+                <pt idx="10">
+                  <v>34.95136617958273</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="1751344527"/>
+        <axId val="1751344943"/>
+      </barChart>
+      <catAx>
+        <axId val="1751344527"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="0&quot; kWh&quot;" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1751344943"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="1751344943"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Jahre</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+          <spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1751344527"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>238125</colOff>
+      <row>27</row>
+      <rowOff>14287</rowOff>
+    </from>
+    <to>
+      <col>5</col>
+      <colOff>666750</colOff>
+      <row>41</row>
+      <rowOff>90487</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>28575</colOff>
+      <row>27</row>
+      <rowOff>19050</rowOff>
+    </from>
+    <to>
+      <col>12</col>
+      <colOff>28575</colOff>
+      <row>41</row>
+      <rowOff>95250</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>133350</colOff>
+      <row>27</row>
+      <rowOff>76200</rowOff>
+    </from>
+    <to>
+      <col>18</col>
+      <colOff>133350</colOff>
+      <row>41</row>
+      <rowOff>152400</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>247650</colOff>
+      <row>42</row>
+      <rowOff>38100</rowOff>
+    </from>
+    <to>
+      <col>5</col>
+      <colOff>676275</colOff>
+      <row>56</row>
+      <rowOff>114300</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>95250</colOff>
+      <row>42</row>
+      <rowOff>47625</rowOff>
+    </from>
+    <to>
+      <col>12</col>
+      <colOff>95250</colOff>
+      <row>56</row>
+      <rowOff>123825</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>304800</colOff>
+      <row>42</row>
+      <rowOff>66675</rowOff>
+    </from>
+    <to>
+      <col>18</col>
+      <colOff>304800</colOff>
+      <row>56</row>
+      <rowOff>142875</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,68 +2415,68 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="14.140625" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.42578125" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="19.28515625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="19.7109375" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="12.85546875" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
-    <col width="15.28515625" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
-    <col width="11.5703125" bestFit="1" customWidth="1" style="3" min="8" max="9"/>
-    <col width="15" bestFit="1" customWidth="1" style="3" min="10" max="10"/>
-    <col width="11.5703125" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
-    <col width="16" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
+    <col width="14.140625" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
+    <col width="14.42578125" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
+    <col width="19.28515625" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" style="9" min="6" max="6"/>
+    <col width="15.28515625" bestFit="1" customWidth="1" style="9" min="7" max="7"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" style="9" min="8" max="9"/>
+    <col width="15" bestFit="1" customWidth="1" style="9" min="10" max="10"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
+    <col width="16" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Investkosten</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Ersparnisse Prosumer</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Ersparnisse Consumer</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Förderkosten</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Eigenverbrauch</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>Erzeugung</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>Netzbezug</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>Netzeinspeisung</t>
         </is>
       </c>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="K1" s="10" t="inlineStr">
         <is>
           <t>Verbrauch</t>
         </is>
@@ -555,7 +2488,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -569,83 +2502,75 @@
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>Net-Metering</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="n">
-        <v>369489.2352000009</v>
-      </c>
-      <c r="D3" s="7" t="n">
+      <c r="C3" s="2" t="n">
+        <v>300210.0036000009</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>21189.14802180016</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="n">
-        <v>110846.7705600003</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>36661.02822500002</v>
-      </c>
-      <c r="H3" s="8" t="n">
+      <c r="F3" s="2" t="n">
+        <v>90063.00108000026</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>36688.25622500003</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>230930.7720000008</v>
       </c>
-      <c r="I3" s="8" t="n">
-        <v>321209.9360999992</v>
-      </c>
-      <c r="J3" s="8" t="n">
-        <v>135073.1826000001</v>
-      </c>
-      <c r="K3" s="8" t="n">
+      <c r="I3" s="1" t="n">
+        <v>380379.2692749997</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>194242.5157750007</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>417067.5255000005</v>
       </c>
       <c r="L3">
         <f>(C3-F3)/(D3+E3)</f>
         <v/>
       </c>
-      <c r="O3">
-        <f>K3*0.17</f>
-        <v/>
-      </c>
-      <c r="P3">
-        <f>J3*0.05</f>
-        <v/>
-      </c>
     </row>
     <row r="4">
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <v>438768.4668000015</v>
-      </c>
-      <c r="D4" s="7" t="n">
+      <c r="C4" s="2" t="n">
+        <v>415675.3896000014</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>85023.26289925056</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="7" t="n">
-        <v>131630.5400400005</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>36661.02822500002</v>
-      </c>
-      <c r="H4" s="8" t="n">
+      <c r="F4" s="2" t="n">
+        <v>124702.6168800004</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>36688.25622500003</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>230930.7720000008</v>
       </c>
-      <c r="I4" s="8" t="n">
-        <v>321209.9360999992</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <v>135073.1826000001</v>
-      </c>
-      <c r="K4" s="8" t="n">
+      <c r="I4" s="1" t="n">
+        <v>380379.2692749997</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>194242.5157750007</v>
+      </c>
+      <c r="K4" s="1" t="n">
         <v>417067.5255000005</v>
       </c>
       <c r="L4">
@@ -654,34 +2579,34 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>415675.3896000014</v>
-      </c>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="2" t="n">
+        <v>346396.1580000009</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>39427.02489575029</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <v>166270.1558400006</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>36661.02822500002</v>
-      </c>
-      <c r="H5" s="8" t="n">
+      <c r="F5" s="2" t="n">
+        <v>138558.4632000003</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>36688.25622500003</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>230930.7720000008</v>
       </c>
-      <c r="I5" s="8" t="n">
-        <v>321209.9360999992</v>
-      </c>
-      <c r="J5" s="8" t="n">
-        <v>135073.1826000001</v>
-      </c>
-      <c r="K5" s="8" t="n">
+      <c r="I5" s="1" t="n">
+        <v>380379.2692749997</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>194242.5157750007</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>417067.5255000005</v>
       </c>
       <c r="L5">
@@ -690,39 +2615,39 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Peer-to-Peer</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <v>369489.2352000009</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>21084.56578254971</v>
-      </c>
-      <c r="E6" s="7" t="n">
+      <c r="C6" s="2" t="n">
+        <v>300210.0036000009</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>13984.24580154967</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>1964.883545450593</v>
       </c>
-      <c r="F6" s="7" t="n">
-        <v>110846.7705600003</v>
-      </c>
-      <c r="G6" s="8" t="n">
+      <c r="F6" s="2" t="n">
+        <v>90063.00108000026</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>36661.02822500002</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="1" t="n">
         <v>230930.7720000008</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="1" t="n">
         <v>321209.9360999992</v>
       </c>
-      <c r="J6" s="8" t="n">
-        <v>135073.1826000001</v>
-      </c>
-      <c r="K6" s="8" t="n">
+      <c r="J6" s="1" t="n">
+        <v>253411.8489500006</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <v>417067.5255000005</v>
       </c>
       <c r="L6">
@@ -731,34 +2656,34 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <v>438768.4668000015</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>91004.03858633862</v>
-      </c>
-      <c r="E7" s="7" t="n">
+      <c r="C7" s="2" t="n">
+        <v>415675.3896000014</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>72424.86796938852</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>5141.445277262388</v>
       </c>
-      <c r="F7" s="7" t="n">
-        <v>131630.5400400005</v>
-      </c>
-      <c r="G7" s="8" t="n">
+      <c r="F7" s="2" t="n">
+        <v>124702.6168800004</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>36661.02822500002</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="1" t="n">
         <v>230930.7720000008</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="1" t="n">
         <v>321209.9360999992</v>
       </c>
-      <c r="J7" s="8" t="n">
-        <v>135073.1826000001</v>
-      </c>
-      <c r="K7" s="8" t="n">
+      <c r="J7" s="1" t="n">
+        <v>253411.8489500006</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>417067.5255000005</v>
       </c>
       <c r="L7">
@@ -767,34 +2692,34 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>415675.3896000014</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>40504.26129237042</v>
-      </c>
-      <c r="E8" s="7" t="n">
+      <c r="C8" s="2" t="n">
+        <v>346396.1580000009</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>29262.08798912038</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>3111.065613630106</v>
       </c>
-      <c r="F8" s="7" t="n">
-        <v>166270.1558400006</v>
-      </c>
-      <c r="G8" s="8" t="n">
+      <c r="F8" s="2" t="n">
+        <v>138558.4632000003</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>36661.02822500002</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="1" t="n">
         <v>230930.7720000008</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="1" t="n">
         <v>321209.9360999992</v>
       </c>
-      <c r="J8" s="8" t="n">
-        <v>135073.1826000001</v>
-      </c>
-      <c r="K8" s="8" t="n">
+      <c r="J8" s="1" t="n">
+        <v>253411.8489500006</v>
+      </c>
+      <c r="K8" s="1" t="n">
         <v>417067.5255000005</v>
       </c>
       <c r="L8">
@@ -803,39 +2728,39 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="8" t="inlineStr">
         <is>
           <t>Shared Generation</t>
         </is>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>1034012.435248867</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>38181.99460935064</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>13285.5812066561</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>310203.7305746601</v>
-      </c>
-      <c r="G9" s="8" t="n">
+      <c r="C9" s="2" t="n">
+        <v>840135.103639706</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>33752.63948144754</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>12237.05923832138</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>252040.5310919118</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>113973.4176520113</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="1" t="n">
         <v>646257.7720305432</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="1" t="n">
         <v>257445.1320460046</v>
       </c>
-      <c r="J9" s="8" t="n">
-        <v>486635.3785765476</v>
-      </c>
-      <c r="K9" s="8" t="n">
+      <c r="J9" s="1" t="n">
+        <v>577933.3301805116</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>417067.5255000005</v>
       </c>
       <c r="L9">
@@ -844,34 +2769,34 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="n">
-        <v>1227889.766858031</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>177631.4996945483</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>57319.65465074215</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>368366.9300574092</v>
-      </c>
-      <c r="G10" s="8" t="n">
+      <c r="C10" s="2" t="n">
+        <v>1163263.989654977</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>166041.3537765352</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>54576.02216693301</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>348979.1968964932</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>113973.4176520113</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="1" t="n">
         <v>646257.7720305432</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="1" t="n">
         <v>257445.1320460046</v>
       </c>
-      <c r="J10" s="8" t="n">
-        <v>486635.3785765476</v>
-      </c>
-      <c r="K10" s="8" t="n">
+      <c r="J10" s="1" t="n">
+        <v>577933.3301805116</v>
+      </c>
+      <c r="K10" s="1" t="n">
         <v>417067.5255000005</v>
       </c>
       <c r="L10">
@@ -880,34 +2805,34 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="n">
-        <v>1163263.989654977</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>75899.03556041732</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>25517.57411920175</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>465305.5958619909</v>
-      </c>
-      <c r="G11" s="8" t="n">
+      <c r="C11" s="2" t="n">
+        <v>969386.658045813</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>68885.88994123743</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>23857.41433600515</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>387754.6632183252</v>
+      </c>
+      <c r="G11" s="1" t="n">
         <v>113973.4176520113</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="1" t="n">
         <v>646257.7720305432</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="1" t="n">
         <v>257445.1320460046</v>
       </c>
-      <c r="J11" s="8" t="n">
-        <v>486635.3785765476</v>
-      </c>
-      <c r="K11" s="8" t="n">
+      <c r="J11" s="1" t="n">
+        <v>577933.3301805116</v>
+      </c>
+      <c r="K11" s="1" t="n">
         <v>417067.5255000005</v>
       </c>
       <c r="L11">
@@ -915,30 +2840,1502 @@
         <v/>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>Vergangenheit</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="C13" s="3">
+        <f>C3</f>
+        <v/>
+      </c>
+      <c r="D13" s="3">
+        <f>D3</f>
+        <v/>
+      </c>
+      <c r="E13" s="3">
+        <f>E3</f>
+        <v/>
+      </c>
+      <c r="F13" s="3">
+        <f>F3</f>
+        <v/>
+      </c>
+      <c r="G13" s="3">
+        <f>G3</f>
+        <v/>
+      </c>
+      <c r="H13" s="3">
+        <f>H3</f>
+        <v/>
+      </c>
+      <c r="I13" s="3">
+        <f>I3</f>
+        <v/>
+      </c>
+      <c r="J13" s="3">
+        <f>J3</f>
+        <v/>
+      </c>
+      <c r="K13" s="3">
+        <f>K3</f>
+        <v/>
+      </c>
+      <c r="L13">
+        <f>L3</f>
+        <v/>
+      </c>
+      <c r="M13" s="3">
+        <f>E13+D13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PTP</t>
+        </is>
+      </c>
+      <c r="C14" s="3">
+        <f>C6</f>
+        <v/>
+      </c>
+      <c r="D14" s="3">
+        <f>D6</f>
+        <v/>
+      </c>
+      <c r="E14" s="3">
+        <f>E6</f>
+        <v/>
+      </c>
+      <c r="F14" s="3">
+        <f>F6</f>
+        <v/>
+      </c>
+      <c r="G14" s="3">
+        <f>G6</f>
+        <v/>
+      </c>
+      <c r="H14" s="3">
+        <f>H6</f>
+        <v/>
+      </c>
+      <c r="I14" s="3">
+        <f>I6</f>
+        <v/>
+      </c>
+      <c r="J14" s="3">
+        <f>J6</f>
+        <v/>
+      </c>
+      <c r="K14" s="3">
+        <f>K6</f>
+        <v/>
+      </c>
+      <c r="L14">
+        <f>L6</f>
+        <v/>
+      </c>
+      <c r="M14" s="3">
+        <f>E14+D14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C15" s="3">
+        <f>C9</f>
+        <v/>
+      </c>
+      <c r="D15" s="3">
+        <f>D9</f>
+        <v/>
+      </c>
+      <c r="E15" s="3">
+        <f>E9</f>
+        <v/>
+      </c>
+      <c r="F15" s="3">
+        <f>F9</f>
+        <v/>
+      </c>
+      <c r="G15" s="3">
+        <f>G9</f>
+        <v/>
+      </c>
+      <c r="H15" s="3">
+        <f>H9</f>
+        <v/>
+      </c>
+      <c r="I15" s="3">
+        <f>I9</f>
+        <v/>
+      </c>
+      <c r="J15" s="3">
+        <f>J9</f>
+        <v/>
+      </c>
+      <c r="K15" s="3">
+        <f>K9</f>
+        <v/>
+      </c>
+      <c r="L15">
+        <f>L9</f>
+        <v/>
+      </c>
+      <c r="M15" s="3">
+        <f>E15+D15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>Gegenwart</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="C16" s="3">
+        <f>C4</f>
+        <v/>
+      </c>
+      <c r="D16" s="3">
+        <f>D4</f>
+        <v/>
+      </c>
+      <c r="E16" s="3">
+        <f>E4</f>
+        <v/>
+      </c>
+      <c r="F16" s="3">
+        <f>F4</f>
+        <v/>
+      </c>
+      <c r="G16" s="3">
+        <f>G4</f>
+        <v/>
+      </c>
+      <c r="H16" s="3">
+        <f>H4</f>
+        <v/>
+      </c>
+      <c r="I16" s="3">
+        <f>I4</f>
+        <v/>
+      </c>
+      <c r="J16" s="3">
+        <f>J4</f>
+        <v/>
+      </c>
+      <c r="K16" s="3">
+        <f>K4</f>
+        <v/>
+      </c>
+      <c r="L16">
+        <f>L4</f>
+        <v/>
+      </c>
+      <c r="M16" s="3">
+        <f>E16+D16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PTP</t>
+        </is>
+      </c>
+      <c r="C17" s="3">
+        <f>C7</f>
+        <v/>
+      </c>
+      <c r="D17" s="3">
+        <f>D7</f>
+        <v/>
+      </c>
+      <c r="E17" s="3">
+        <f>E7</f>
+        <v/>
+      </c>
+      <c r="F17" s="3">
+        <f>F7</f>
+        <v/>
+      </c>
+      <c r="G17" s="3">
+        <f>G7</f>
+        <v/>
+      </c>
+      <c r="H17" s="3">
+        <f>H7</f>
+        <v/>
+      </c>
+      <c r="I17" s="3">
+        <f>I7</f>
+        <v/>
+      </c>
+      <c r="J17" s="3">
+        <f>J7</f>
+        <v/>
+      </c>
+      <c r="K17" s="3">
+        <f>K7</f>
+        <v/>
+      </c>
+      <c r="L17">
+        <f>L7</f>
+        <v/>
+      </c>
+      <c r="M17" s="3">
+        <f>E17+D17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C18" s="3">
+        <f>C10</f>
+        <v/>
+      </c>
+      <c r="D18" s="3">
+        <f>D10</f>
+        <v/>
+      </c>
+      <c r="E18" s="3">
+        <f>E10</f>
+        <v/>
+      </c>
+      <c r="F18" s="3">
+        <f>F10</f>
+        <v/>
+      </c>
+      <c r="G18" s="3">
+        <f>G10</f>
+        <v/>
+      </c>
+      <c r="H18" s="3">
+        <f>H10</f>
+        <v/>
+      </c>
+      <c r="I18" s="3">
+        <f>I10</f>
+        <v/>
+      </c>
+      <c r="J18" s="3">
+        <f>J10</f>
+        <v/>
+      </c>
+      <c r="K18" s="3">
+        <f>K10</f>
+        <v/>
+      </c>
+      <c r="L18">
+        <f>L10</f>
+        <v/>
+      </c>
+      <c r="M18" s="3">
+        <f>E18+D18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Zukunft</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="C19" s="3">
+        <f>C5</f>
+        <v/>
+      </c>
+      <c r="D19" s="3">
+        <f>D5</f>
+        <v/>
+      </c>
+      <c r="E19" s="3">
+        <f>E5</f>
+        <v/>
+      </c>
+      <c r="F19" s="3">
+        <f>F5</f>
+        <v/>
+      </c>
+      <c r="G19" s="3">
+        <f>G5</f>
+        <v/>
+      </c>
+      <c r="H19" s="3">
+        <f>H5</f>
+        <v/>
+      </c>
+      <c r="I19" s="3">
+        <f>I5</f>
+        <v/>
+      </c>
+      <c r="J19" s="3">
+        <f>J5</f>
+        <v/>
+      </c>
+      <c r="K19" s="3">
+        <f>K5</f>
+        <v/>
+      </c>
+      <c r="L19">
+        <f>L5</f>
+        <v/>
+      </c>
+      <c r="M19" s="3">
+        <f>E19+D19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PTP</t>
+        </is>
+      </c>
+      <c r="C20" s="3">
+        <f>C8</f>
+        <v/>
+      </c>
+      <c r="D20" s="3">
+        <f>D8</f>
+        <v/>
+      </c>
+      <c r="E20" s="3">
+        <f>E8</f>
+        <v/>
+      </c>
+      <c r="F20" s="3">
+        <f>F8</f>
+        <v/>
+      </c>
+      <c r="G20" s="3">
+        <f>G8</f>
+        <v/>
+      </c>
+      <c r="H20" s="3">
+        <f>H8</f>
+        <v/>
+      </c>
+      <c r="I20" s="3">
+        <f>I8</f>
+        <v/>
+      </c>
+      <c r="J20" s="3">
+        <f>J8</f>
+        <v/>
+      </c>
+      <c r="K20" s="3">
+        <f>K8</f>
+        <v/>
+      </c>
+      <c r="L20">
+        <f>L8</f>
+        <v/>
+      </c>
+      <c r="M20" s="3">
+        <f>E20+D20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C21" s="3">
+        <f>C11</f>
+        <v/>
+      </c>
+      <c r="D21" s="3">
+        <f>D11</f>
+        <v/>
+      </c>
+      <c r="E21" s="3">
+        <f>E11</f>
+        <v/>
+      </c>
+      <c r="F21" s="3">
+        <f>F11</f>
+        <v/>
+      </c>
+      <c r="G21" s="3">
+        <f>G11</f>
+        <v/>
+      </c>
+      <c r="H21" s="3">
+        <f>H11</f>
+        <v/>
+      </c>
+      <c r="I21" s="3">
+        <f>I11</f>
+        <v/>
+      </c>
+      <c r="J21" s="3">
+        <f>J11</f>
+        <v/>
+      </c>
+      <c r="K21" s="3">
+        <f>K11</f>
+        <v/>
+      </c>
+      <c r="L21">
+        <f>L11</f>
+        <v/>
+      </c>
+      <c r="M21" s="3">
+        <f>E21+D21</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="14.42578125" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
+    <col width="11.85546875" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Investkosten</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ersparnisse Prosumer</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ersparnisse Consumer</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Förderkosten</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Eigenverbrauch</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Erzeugung</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Netzbezug</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Netzeinspeisung</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Verbrauch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>369489.2352</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13984.2458015496</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1964.88354545059</v>
+      </c>
+      <c r="E3" t="n">
+        <v>110846.77056</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36661.028225</v>
+      </c>
+      <c r="G3" t="n">
+        <v>230930.772</v>
+      </c>
+      <c r="H3" t="n">
+        <v>321209.936099999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>253411.84895</v>
+      </c>
+      <c r="J3" t="n">
+        <v>417067.5255</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>469489.2352</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17380.7955373814</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2460.91280008605</v>
+      </c>
+      <c r="E4" t="n">
+        <v>130846.77056</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36661.028225</v>
+      </c>
+      <c r="G4" t="n">
+        <v>230930.772</v>
+      </c>
+      <c r="H4" t="n">
+        <v>314211.351793482</v>
+      </c>
+      <c r="I4" t="n">
+        <v>195534.116748729</v>
+      </c>
+      <c r="J4" t="n">
+        <v>417067.5255</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>569489.2352</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19861.8291972064</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2731.71128584154</v>
+      </c>
+      <c r="E5" t="n">
+        <v>150846.77056</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36661.028225</v>
+      </c>
+      <c r="G5" t="n">
+        <v>230930.772</v>
+      </c>
+      <c r="H5" t="n">
+        <v>297577.051127834</v>
+      </c>
+      <c r="I5" t="n">
+        <v>166304.548321368</v>
+      </c>
+      <c r="J5" t="n">
+        <v>417067.5255</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>669489.2352</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21949.1138699064</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2936.98914622631</v>
+      </c>
+      <c r="E6" t="n">
+        <v>170846.77056</v>
+      </c>
+      <c r="F6" t="n">
+        <v>36661.028225</v>
+      </c>
+      <c r="G6" t="n">
+        <v>230930.772</v>
+      </c>
+      <c r="H6" t="n">
+        <v>282892.497515557</v>
+      </c>
+      <c r="I6" t="n">
+        <v>142779.726382233</v>
+      </c>
+      <c r="J6" t="n">
+        <v>417067.5255</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>769489.2352</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23725.9103575686</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3112.18857819406</v>
+      </c>
+      <c r="E7" t="n">
+        <v>190846.77056</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36661.028225</v>
+      </c>
+      <c r="G7" t="n">
+        <v>230930.772</v>
+      </c>
+      <c r="H7" t="n">
+        <v>270029.686131725</v>
+      </c>
+      <c r="I7" t="n">
+        <v>123109.272438898</v>
+      </c>
+      <c r="J7" t="n">
+        <v>417067.5255</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>869489.2352</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25008.292788826</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3287.21066183762</v>
+      </c>
+      <c r="E8" t="n">
+        <v>210846.77056</v>
+      </c>
+      <c r="F8" t="n">
+        <v>36661.028225</v>
+      </c>
+      <c r="G8" t="n">
+        <v>230930.772</v>
+      </c>
+      <c r="H8" t="n">
+        <v>260431.677538035</v>
+      </c>
+      <c r="I8" t="n">
+        <v>108417.205784241</v>
+      </c>
+      <c r="J8" t="n">
+        <v>417067.5255</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>969489.2352</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25680.270275203</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3390.90655652512</v>
+      </c>
+      <c r="E9" t="n">
+        <v>230846.77056</v>
+      </c>
+      <c r="F9" t="n">
+        <v>36661.028225</v>
+      </c>
+      <c r="G9" t="n">
+        <v>230930.772</v>
+      </c>
+      <c r="H9" t="n">
+        <v>255742.769346851</v>
+      </c>
+      <c r="I9" t="n">
+        <v>100178.224291017</v>
+      </c>
+      <c r="J9" t="n">
+        <v>417067.5255</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1069489.2352</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26099.0312514112</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3458.52991366025</v>
+      </c>
+      <c r="E10" t="n">
+        <v>250846.77056</v>
+      </c>
+      <c r="F10" t="n">
+        <v>36661.028225</v>
+      </c>
+      <c r="G10" t="n">
+        <v>230930.772</v>
+      </c>
+      <c r="H10" t="n">
+        <v>253033.774525408</v>
+      </c>
+      <c r="I10" t="n">
+        <v>94780.8135567378</v>
+      </c>
+      <c r="J10" t="n">
+        <v>417067.5255</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1169489.2352</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26358.0462417156</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3500.77763863885</v>
+      </c>
+      <c r="E11" t="n">
+        <v>270846.77056</v>
+      </c>
+      <c r="F11" t="n">
+        <v>36661.028225</v>
+      </c>
+      <c r="G11" t="n">
+        <v>230930.772</v>
+      </c>
+      <c r="H11" t="n">
+        <v>251549.416169123</v>
+      </c>
+      <c r="I11" t="n">
+        <v>91244.1266583047</v>
+      </c>
+      <c r="J11" t="n">
+        <v>417067.5255</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1269489.2352</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26596.627037366</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3527.74647224766</v>
+      </c>
+      <c r="E12" t="n">
+        <v>290846.77056</v>
+      </c>
+      <c r="F12" t="n">
+        <v>36661.028225</v>
+      </c>
+      <c r="G12" t="n">
+        <v>230930.772</v>
+      </c>
+      <c r="H12" t="n">
+        <v>250017.994903866</v>
+      </c>
+      <c r="I12" t="n">
+        <v>88349.7207692423</v>
+      </c>
+      <c r="J12" t="n">
+        <v>417067.5255</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1369489.2352</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26745.1082064222</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3543.9070841566</v>
+      </c>
+      <c r="E13" t="n">
+        <v>310846.77056</v>
+      </c>
+      <c r="F13" t="n">
+        <v>36661.028225</v>
+      </c>
+      <c r="G13" t="n">
+        <v>230930.772</v>
+      </c>
+      <c r="H13" t="n">
+        <v>249167.876976721</v>
+      </c>
+      <c r="I13" t="n">
+        <v>86455.8090136346</v>
+      </c>
+      <c r="J13" t="n">
+        <v>417067.5255</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15">
+        <f>B1</f>
+        <v/>
+      </c>
+      <c r="C15">
+        <f>C1</f>
+        <v/>
+      </c>
+      <c r="D15">
+        <f>D1</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>E1</f>
+        <v/>
+      </c>
+      <c r="F15">
+        <f>F1</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>G1</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>H1</f>
+        <v/>
+      </c>
+      <c r="I15">
+        <f>I1</f>
+        <v/>
+      </c>
+      <c r="J15">
+        <f>J1</f>
+        <v/>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Amortisationszeit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B3</f>
+        <v/>
+      </c>
+      <c r="C16" s="4">
+        <f>C3</f>
+        <v/>
+      </c>
+      <c r="D16" s="4">
+        <f>D3</f>
+        <v/>
+      </c>
+      <c r="E16" s="4">
+        <f>E3</f>
+        <v/>
+      </c>
+      <c r="F16" s="5">
+        <f>F3</f>
+        <v/>
+      </c>
+      <c r="G16" s="5">
+        <f>G3</f>
+        <v/>
+      </c>
+      <c r="H16" s="5">
+        <f>H3</f>
+        <v/>
+      </c>
+      <c r="I16" s="5">
+        <f>I3</f>
+        <v/>
+      </c>
+      <c r="J16" s="5">
+        <f>J3</f>
+        <v/>
+      </c>
+      <c r="K16" s="3">
+        <f>C16+D16</f>
+        <v/>
+      </c>
+      <c r="L16">
+        <f>(B16-E16)/(C16+D16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B4</f>
+        <v/>
+      </c>
+      <c r="C17" s="4">
+        <f>C4</f>
+        <v/>
+      </c>
+      <c r="D17" s="4">
+        <f>D4</f>
+        <v/>
+      </c>
+      <c r="E17" s="4">
+        <f>E4</f>
+        <v/>
+      </c>
+      <c r="F17" s="5">
+        <f>F4</f>
+        <v/>
+      </c>
+      <c r="G17" s="5">
+        <f>G4</f>
+        <v/>
+      </c>
+      <c r="H17" s="5">
+        <f>H4</f>
+        <v/>
+      </c>
+      <c r="I17" s="5">
+        <f>I4</f>
+        <v/>
+      </c>
+      <c r="J17" s="5">
+        <f>J4</f>
+        <v/>
+      </c>
+      <c r="K17" s="3">
+        <f>C17+D17</f>
+        <v/>
+      </c>
+      <c r="L17">
+        <f>(B17-E17)/(C17+D17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="B18" s="4">
+        <f>B5</f>
+        <v/>
+      </c>
+      <c r="C18" s="4">
+        <f>C5</f>
+        <v/>
+      </c>
+      <c r="D18" s="4">
+        <f>D5</f>
+        <v/>
+      </c>
+      <c r="E18" s="4">
+        <f>E5</f>
+        <v/>
+      </c>
+      <c r="F18" s="5">
+        <f>F5</f>
+        <v/>
+      </c>
+      <c r="G18" s="5">
+        <f>G5</f>
+        <v/>
+      </c>
+      <c r="H18" s="5">
+        <f>H5</f>
+        <v/>
+      </c>
+      <c r="I18" s="5">
+        <f>I5</f>
+        <v/>
+      </c>
+      <c r="J18" s="5">
+        <f>J5</f>
+        <v/>
+      </c>
+      <c r="K18" s="3">
+        <f>C18+D18</f>
+        <v/>
+      </c>
+      <c r="L18">
+        <f>(B18-E18)/(C18+D18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B6</f>
+        <v/>
+      </c>
+      <c r="C19" s="4">
+        <f>C6</f>
+        <v/>
+      </c>
+      <c r="D19" s="4">
+        <f>D6</f>
+        <v/>
+      </c>
+      <c r="E19" s="4">
+        <f>E6</f>
+        <v/>
+      </c>
+      <c r="F19" s="5">
+        <f>F6</f>
+        <v/>
+      </c>
+      <c r="G19" s="5">
+        <f>G6</f>
+        <v/>
+      </c>
+      <c r="H19" s="5">
+        <f>H6</f>
+        <v/>
+      </c>
+      <c r="I19" s="5">
+        <f>I6</f>
+        <v/>
+      </c>
+      <c r="J19" s="5">
+        <f>J6</f>
+        <v/>
+      </c>
+      <c r="K19" s="3">
+        <f>C19+D19</f>
+        <v/>
+      </c>
+      <c r="L19">
+        <f>(B19-E19)/(C19+D19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>400</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B7</f>
+        <v/>
+      </c>
+      <c r="C20" s="4">
+        <f>C7</f>
+        <v/>
+      </c>
+      <c r="D20" s="4">
+        <f>D7</f>
+        <v/>
+      </c>
+      <c r="E20" s="4">
+        <f>E7</f>
+        <v/>
+      </c>
+      <c r="F20" s="5">
+        <f>F7</f>
+        <v/>
+      </c>
+      <c r="G20" s="5">
+        <f>G7</f>
+        <v/>
+      </c>
+      <c r="H20" s="5">
+        <f>H7</f>
+        <v/>
+      </c>
+      <c r="I20" s="5">
+        <f>I7</f>
+        <v/>
+      </c>
+      <c r="J20" s="5">
+        <f>J7</f>
+        <v/>
+      </c>
+      <c r="K20" s="3">
+        <f>C20+D20</f>
+        <v/>
+      </c>
+      <c r="L20">
+        <f>(B20-E20)/(C20+D20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="B21" s="4">
+        <f>B8</f>
+        <v/>
+      </c>
+      <c r="C21" s="4">
+        <f>C8</f>
+        <v/>
+      </c>
+      <c r="D21" s="4">
+        <f>D8</f>
+        <v/>
+      </c>
+      <c r="E21" s="4">
+        <f>E8</f>
+        <v/>
+      </c>
+      <c r="F21" s="5">
+        <f>F8</f>
+        <v/>
+      </c>
+      <c r="G21" s="5">
+        <f>G8</f>
+        <v/>
+      </c>
+      <c r="H21" s="5">
+        <f>H8</f>
+        <v/>
+      </c>
+      <c r="I21" s="5">
+        <f>I8</f>
+        <v/>
+      </c>
+      <c r="J21" s="5">
+        <f>J8</f>
+        <v/>
+      </c>
+      <c r="K21" s="3">
+        <f>C21+D21</f>
+        <v/>
+      </c>
+      <c r="L21">
+        <f>(B21-E21)/(C21+D21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="B22" s="4">
+        <f>B9</f>
+        <v/>
+      </c>
+      <c r="C22" s="4">
+        <f>C9</f>
+        <v/>
+      </c>
+      <c r="D22" s="4">
+        <f>D9</f>
+        <v/>
+      </c>
+      <c r="E22" s="4">
+        <f>E9</f>
+        <v/>
+      </c>
+      <c r="F22" s="5">
+        <f>F9</f>
+        <v/>
+      </c>
+      <c r="G22" s="5">
+        <f>G9</f>
+        <v/>
+      </c>
+      <c r="H22" s="5">
+        <f>H9</f>
+        <v/>
+      </c>
+      <c r="I22" s="5">
+        <f>I9</f>
+        <v/>
+      </c>
+      <c r="J22" s="5">
+        <f>J9</f>
+        <v/>
+      </c>
+      <c r="K22" s="3">
+        <f>C22+D22</f>
+        <v/>
+      </c>
+      <c r="L22">
+        <f>(B22-E22)/(C22+D22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>700</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B10</f>
+        <v/>
+      </c>
+      <c r="C23" s="4">
+        <f>C10</f>
+        <v/>
+      </c>
+      <c r="D23" s="4">
+        <f>D10</f>
+        <v/>
+      </c>
+      <c r="E23" s="4">
+        <f>E10</f>
+        <v/>
+      </c>
+      <c r="F23" s="5">
+        <f>F10</f>
+        <v/>
+      </c>
+      <c r="G23" s="5">
+        <f>G10</f>
+        <v/>
+      </c>
+      <c r="H23" s="5">
+        <f>H10</f>
+        <v/>
+      </c>
+      <c r="I23" s="5">
+        <f>I10</f>
+        <v/>
+      </c>
+      <c r="J23" s="5">
+        <f>J10</f>
+        <v/>
+      </c>
+      <c r="K23" s="3">
+        <f>C23+D23</f>
+        <v/>
+      </c>
+      <c r="L23">
+        <f>(B23-E23)/(C23+D23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>800</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B11</f>
+        <v/>
+      </c>
+      <c r="C24" s="4">
+        <f>C11</f>
+        <v/>
+      </c>
+      <c r="D24" s="4">
+        <f>D11</f>
+        <v/>
+      </c>
+      <c r="E24" s="4">
+        <f>E11</f>
+        <v/>
+      </c>
+      <c r="F24" s="5">
+        <f>F11</f>
+        <v/>
+      </c>
+      <c r="G24" s="5">
+        <f>G11</f>
+        <v/>
+      </c>
+      <c r="H24" s="5">
+        <f>H11</f>
+        <v/>
+      </c>
+      <c r="I24" s="5">
+        <f>I11</f>
+        <v/>
+      </c>
+      <c r="J24" s="5">
+        <f>J11</f>
+        <v/>
+      </c>
+      <c r="K24" s="3">
+        <f>C24+D24</f>
+        <v/>
+      </c>
+      <c r="L24">
+        <f>(B24-E24)/(C24+D24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>900</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B12</f>
+        <v/>
+      </c>
+      <c r="C25" s="4">
+        <f>C12</f>
+        <v/>
+      </c>
+      <c r="D25" s="4">
+        <f>D12</f>
+        <v/>
+      </c>
+      <c r="E25" s="4">
+        <f>E12</f>
+        <v/>
+      </c>
+      <c r="F25" s="5">
+        <f>F12</f>
+        <v/>
+      </c>
+      <c r="G25" s="5">
+        <f>G12</f>
+        <v/>
+      </c>
+      <c r="H25" s="5">
+        <f>H12</f>
+        <v/>
+      </c>
+      <c r="I25" s="5">
+        <f>I12</f>
+        <v/>
+      </c>
+      <c r="J25" s="5">
+        <f>J12</f>
+        <v/>
+      </c>
+      <c r="K25" s="3">
+        <f>C25+D25</f>
+        <v/>
+      </c>
+      <c r="L25">
+        <f>(B25-E25)/(C25+D25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B13</f>
+        <v/>
+      </c>
+      <c r="C26" s="4">
+        <f>C13</f>
+        <v/>
+      </c>
+      <c r="D26" s="4">
+        <f>D13</f>
+        <v/>
+      </c>
+      <c r="E26" s="4">
+        <f>E13</f>
+        <v/>
+      </c>
+      <c r="F26" s="5">
+        <f>F13</f>
+        <v/>
+      </c>
+      <c r="G26" s="5">
+        <f>G13</f>
+        <v/>
+      </c>
+      <c r="H26" s="5">
+        <f>H13</f>
+        <v/>
+      </c>
+      <c r="I26" s="5">
+        <f>I13</f>
+        <v/>
+      </c>
+      <c r="J26" s="5">
+        <f>J13</f>
+        <v/>
+      </c>
+      <c r="K26" s="3">
+        <f>C26+D26</f>
+        <v/>
+      </c>
+      <c r="L26">
+        <f>(B26-E26)/(C26+D26)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>